--- a/ScotlandC.xlsx
+++ b/ScotlandC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\ScotlandGraphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C73BB-6A11-43D2-9E55-5EA55DB66241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59675E-3676-44EB-AFCB-F17860F49AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="8475" windowWidth="21600" windowHeight="11295" xr2:uid="{819EE103-8363-4BC3-A97F-708155B3DABE}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{819EE103-8363-4BC3-A97F-708155B3DABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,35 +126,35 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56CEECC-3856-47FA-848D-8E1D4B39EDCE}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,41 +508,41 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45156</v>
+        <v>45204</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45146</v>
+        <v>45204</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -552,175 +552,175 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45144</v>
+        <v>45183</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45109</v>
+        <v>45182</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45105</v>
+        <v>45173</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45092</v>
-      </c>
-      <c r="B7" s="12">
-        <v>36</v>
-      </c>
-      <c r="C7" s="12">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12">
-        <v>32</v>
-      </c>
-      <c r="E7" s="12">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12">
-        <v>7</v>
+      <c r="A7" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45091</v>
-      </c>
-      <c r="B8" s="12">
-        <v>40</v>
-      </c>
-      <c r="C8" s="12">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
+      <c r="A8" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45083</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B9">
         <v>36</v>
       </c>
-      <c r="C9" s="12">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12">
-        <v>8</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45067</v>
-      </c>
-      <c r="B10" s="12">
-        <v>42</v>
-      </c>
-      <c r="C10" s="12">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12">
-        <v>28</v>
-      </c>
-      <c r="E10" s="12">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
+      <c r="A10" s="1">
+        <v>45109</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45049</v>
-      </c>
-      <c r="B11" s="12">
-        <v>39</v>
-      </c>
-      <c r="C11" s="12">
-        <v>19</v>
-      </c>
-      <c r="D11" s="12">
-        <v>30</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="A11" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B11">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="J11" s="3"/>
@@ -728,95 +728,95 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45048</v>
+        <v>45092</v>
       </c>
       <c r="B12" s="12">
         <v>36</v>
       </c>
       <c r="C12" s="12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="12">
         <v>32</v>
       </c>
       <c r="E12" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45036</v>
+        <v>45091</v>
       </c>
       <c r="B13" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="12">
         <v>16</v>
       </c>
       <c r="D13" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45019</v>
+        <v>45083</v>
       </c>
       <c r="B14" s="12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45017</v>
+        <v>45067</v>
       </c>
       <c r="B15" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="12">
         <v>28</v>
       </c>
       <c r="E15" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45016</v>
+        <v>45049</v>
       </c>
       <c r="B16" s="12">
         <v>39</v>
@@ -825,205 +825,205 @@
         <v>19</v>
       </c>
       <c r="D16" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45015</v>
+        <v>45048</v>
       </c>
       <c r="B17" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="12">
         <v>8</v>
       </c>
       <c r="F17" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44998</v>
+        <v>45036</v>
       </c>
       <c r="B18" s="12">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E18" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44995</v>
+        <v>45019</v>
       </c>
       <c r="B19" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44990</v>
+        <v>45017</v>
       </c>
       <c r="B20" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="B21" s="12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E21" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44974</v>
+        <v>45015</v>
       </c>
       <c r="B22" s="12">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12">
         <v>17</v>
       </c>
       <c r="D22" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E22" s="12">
         <v>8</v>
       </c>
       <c r="F22" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44972</v>
+        <v>44998</v>
       </c>
       <c r="B23" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C23" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="12">
         <v>8</v>
       </c>
       <c r="F23" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44964</v>
+        <v>44995</v>
       </c>
       <c r="B24" s="12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44952</v>
+        <v>44990</v>
       </c>
       <c r="B25" s="12">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E25" s="12">
         <v>7</v>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44938</v>
+        <v>44974</v>
       </c>
       <c r="B26" s="12">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" s="12">
         <v>17</v>
       </c>
       <c r="D26" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="12">
         <v>8</v>
@@ -1058,16 +1058,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44926</v>
+        <v>44974</v>
       </c>
       <c r="B27" s="12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="12">
         <v>8</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44916</v>
+        <v>44972</v>
       </c>
       <c r="B28" s="12">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="12">
         <v>28</v>
@@ -1095,23 +1095,23 @@
         <v>8</v>
       </c>
       <c r="F28" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44904</v>
+        <v>44964</v>
       </c>
       <c r="B29" s="12">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29" s="12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D29" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E29" s="12">
         <v>7</v>
@@ -1124,153 +1124,153 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44900</v>
+        <v>44952</v>
       </c>
       <c r="B30" s="12">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" s="12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D30" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E30" s="12">
         <v>7</v>
       </c>
       <c r="F30" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44906</v>
+        <v>44938</v>
       </c>
       <c r="B31" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>44838</v>
-      </c>
-      <c r="B32" s="13">
-        <v>49</v>
-      </c>
-      <c r="C32" s="13">
-        <v>13</v>
-      </c>
-      <c r="D32" s="13">
-        <v>26</v>
-      </c>
-      <c r="E32" s="13">
-        <v>8</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="A32" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B32" s="12">
+        <v>44</v>
+      </c>
+      <c r="C32" s="12">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12">
+        <v>29</v>
+      </c>
+      <c r="E32" s="12">
+        <v>8</v>
+      </c>
+      <c r="F32" s="12">
         <v>0</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>44838</v>
-      </c>
-      <c r="B33" s="13">
-        <v>47</v>
-      </c>
-      <c r="C33" s="13">
-        <v>17</v>
-      </c>
-      <c r="D33" s="13">
-        <v>25</v>
-      </c>
-      <c r="E33" s="13">
-        <v>8</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="A33" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B33" s="12">
+        <v>44</v>
+      </c>
+      <c r="C33" s="12">
+        <v>18</v>
+      </c>
+      <c r="D33" s="12">
+        <v>28</v>
+      </c>
+      <c r="E33" s="12">
+        <v>8</v>
+      </c>
+      <c r="F33" s="12">
         <v>0</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>44833</v>
-      </c>
-      <c r="B34" s="13">
-        <v>45</v>
-      </c>
-      <c r="C34" s="13">
-        <v>14</v>
-      </c>
-      <c r="D34" s="13">
-        <v>30</v>
-      </c>
-      <c r="E34" s="13">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13">
+      <c r="A34" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B34" s="12">
+        <v>50</v>
+      </c>
+      <c r="C34" s="12">
+        <v>13</v>
+      </c>
+      <c r="D34" s="12">
+        <v>25</v>
+      </c>
+      <c r="E34" s="12">
+        <v>7</v>
+      </c>
+      <c r="F34" s="12">
         <v>0</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>44792</v>
-      </c>
-      <c r="B35" s="13">
-        <v>47</v>
-      </c>
-      <c r="C35" s="13">
-        <v>17</v>
-      </c>
-      <c r="D35" s="13">
-        <v>22</v>
-      </c>
-      <c r="E35" s="13">
-        <v>9</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="A35" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B35" s="12">
+        <v>50</v>
+      </c>
+      <c r="C35" s="12">
+        <v>14</v>
+      </c>
+      <c r="D35" s="12">
+        <v>24</v>
+      </c>
+      <c r="E35" s="12">
+        <v>7</v>
+      </c>
+      <c r="F35" s="12">
         <v>3</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>44743</v>
-      </c>
-      <c r="B36" s="13">
-        <v>47</v>
-      </c>
-      <c r="C36" s="13">
-        <v>17</v>
-      </c>
-      <c r="D36" s="13">
-        <v>22</v>
-      </c>
-      <c r="E36" s="13">
-        <v>9</v>
-      </c>
-      <c r="F36" s="13">
+      <c r="A36" s="2">
+        <v>44906</v>
+      </c>
+      <c r="B36" s="12">
+        <v>45</v>
+      </c>
+      <c r="C36" s="12">
+        <v>15</v>
+      </c>
+      <c r="D36" s="12">
+        <v>28</v>
+      </c>
+      <c r="E36" s="12">
+        <v>6</v>
+      </c>
+      <c r="F36" s="12">
         <v>3</v>
       </c>
       <c r="J36" s="10"/>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>44740</v>
+        <v>44838</v>
       </c>
       <c r="B37" s="13">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C37" s="13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D37" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" s="13">
         <v>8</v>
@@ -1299,262 +1299,262 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>44704</v>
-      </c>
-      <c r="B38" s="12">
+      <c r="A38" s="7">
+        <v>44838</v>
+      </c>
+      <c r="B38" s="13">
         <v>47</v>
       </c>
-      <c r="C38" s="12">
-        <v>18</v>
-      </c>
-      <c r="D38" s="12">
-        <v>23</v>
-      </c>
-      <c r="E38" s="12">
-        <v>7</v>
-      </c>
-      <c r="F38" s="12">
-        <v>2</v>
+      <c r="C38" s="13">
+        <v>17</v>
+      </c>
+      <c r="D38" s="13">
+        <v>25</v>
+      </c>
+      <c r="E38" s="13">
+        <v>8</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>44684</v>
-      </c>
-      <c r="B39" s="12">
-        <v>46</v>
-      </c>
-      <c r="C39" s="12">
-        <v>18</v>
-      </c>
-      <c r="D39" s="12">
-        <v>25</v>
-      </c>
-      <c r="E39" s="12">
-        <v>7</v>
-      </c>
-      <c r="F39" s="12">
+      <c r="A39" s="7">
+        <v>44833</v>
+      </c>
+      <c r="B39" s="13">
+        <v>45</v>
+      </c>
+      <c r="C39" s="13">
+        <v>14</v>
+      </c>
+      <c r="D39" s="13">
+        <v>30</v>
+      </c>
+      <c r="E39" s="13">
+        <v>6</v>
+      </c>
+      <c r="F39" s="13">
         <v>0</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B40" s="12">
-        <v>42</v>
-      </c>
-      <c r="C40" s="12">
-        <v>19</v>
-      </c>
-      <c r="D40" s="12">
-        <v>24</v>
-      </c>
-      <c r="E40" s="12">
-        <v>7</v>
-      </c>
-      <c r="F40" s="12">
-        <v>4</v>
+      <c r="A40" s="7">
+        <v>44792</v>
+      </c>
+      <c r="B40" s="13">
+        <v>47</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17</v>
+      </c>
+      <c r="D40" s="13">
+        <v>22</v>
+      </c>
+      <c r="E40" s="13">
+        <v>9</v>
+      </c>
+      <c r="F40" s="13">
+        <v>3</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>44651</v>
-      </c>
-      <c r="B41" s="14">
-        <v>44</v>
-      </c>
-      <c r="C41" s="14">
-        <v>21</v>
-      </c>
-      <c r="D41" s="14">
+      <c r="A41" s="7">
+        <v>44743</v>
+      </c>
+      <c r="B41" s="13">
+        <v>47</v>
+      </c>
+      <c r="C41" s="13">
+        <v>17</v>
+      </c>
+      <c r="D41" s="13">
         <v>22</v>
       </c>
-      <c r="E41" s="14">
-        <v>8</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0</v>
+      <c r="E41" s="13">
+        <v>9</v>
+      </c>
+      <c r="F41" s="13">
+        <v>3</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>44648</v>
-      </c>
-      <c r="B42" s="14">
+      <c r="A42" s="7">
+        <v>44740</v>
+      </c>
+      <c r="B42" s="13">
         <v>46</v>
       </c>
-      <c r="C42" s="14">
-        <v>20</v>
-      </c>
-      <c r="D42" s="14">
+      <c r="C42" s="13">
+        <v>18</v>
+      </c>
+      <c r="D42" s="13">
         <v>25</v>
       </c>
-      <c r="E42" s="14">
-        <v>7</v>
-      </c>
-      <c r="F42" s="14">
+      <c r="E42" s="13">
+        <v>8</v>
+      </c>
+      <c r="F42" s="13">
         <v>0</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>44636</v>
-      </c>
-      <c r="B43" s="14">
-        <v>46</v>
-      </c>
-      <c r="C43" s="14">
-        <v>20</v>
-      </c>
-      <c r="D43" s="14">
-        <v>24</v>
-      </c>
-      <c r="E43" s="14">
-        <v>7</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0</v>
+      <c r="A43" s="2">
+        <v>44704</v>
+      </c>
+      <c r="B43" s="12">
+        <v>47</v>
+      </c>
+      <c r="C43" s="12">
+        <v>18</v>
+      </c>
+      <c r="D43" s="12">
+        <v>23</v>
+      </c>
+      <c r="E43" s="12">
+        <v>7</v>
+      </c>
+      <c r="F43" s="12">
+        <v>2</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>44620</v>
-      </c>
-      <c r="B44" s="14">
-        <v>47</v>
-      </c>
-      <c r="C44" s="14">
-        <v>21</v>
-      </c>
-      <c r="D44" s="14">
-        <v>22</v>
-      </c>
-      <c r="E44" s="14">
-        <v>8</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="A44" s="4">
+        <v>44684</v>
+      </c>
+      <c r="B44" s="12">
+        <v>46</v>
+      </c>
+      <c r="C44" s="12">
+        <v>18</v>
+      </c>
+      <c r="D44" s="12">
+        <v>25</v>
+      </c>
+      <c r="E44" s="12">
+        <v>7</v>
+      </c>
+      <c r="F44" s="12">
         <v>0</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>44579</v>
-      </c>
-      <c r="B45" s="14">
-        <v>47</v>
-      </c>
-      <c r="C45" s="14">
+      <c r="A45" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B45" s="12">
+        <v>42</v>
+      </c>
+      <c r="C45" s="12">
         <v>19</v>
       </c>
-      <c r="D45" s="14">
-        <v>22</v>
-      </c>
-      <c r="E45" s="14">
-        <v>8</v>
-      </c>
-      <c r="F45" s="14">
-        <v>0</v>
+      <c r="D45" s="12">
+        <v>24</v>
+      </c>
+      <c r="E45" s="12">
+        <v>7</v>
+      </c>
+      <c r="F45" s="12">
+        <v>4</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>44529</v>
+        <v>44651</v>
       </c>
       <c r="B46" s="14">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C46" s="14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46" s="14">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E46" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>44522</v>
+        <v>44648</v>
       </c>
       <c r="B47" s="14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="14">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E47" s="14">
         <v>7</v>
       </c>
       <c r="F47" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>44512</v>
+        <v>44636</v>
       </c>
       <c r="B48" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="14">
         <v>20</v>
       </c>
       <c r="D48" s="14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E48" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>44497</v>
+        <v>44620</v>
       </c>
       <c r="B49" s="14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="14">
         <v>22</v>
       </c>
       <c r="E49" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" s="14">
         <v>0</v>
@@ -1564,101 +1564,201 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
-        <v>44449</v>
+        <v>44579</v>
       </c>
       <c r="B50" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="14">
+        <v>19</v>
+      </c>
+      <c r="D50" s="14">
         <v>22</v>
       </c>
-      <c r="D50" s="14">
-        <v>18</v>
-      </c>
       <c r="E50" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
-        <v>44448</v>
+        <v>44529</v>
       </c>
       <c r="B51" s="14">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C51" s="14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D51" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E51" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F51" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
-        <v>44447</v>
+        <v>44522</v>
       </c>
       <c r="B52" s="14">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C52" s="14">
         <v>21</v>
       </c>
       <c r="D52" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
-        <v>44371</v>
+        <v>44512</v>
       </c>
       <c r="B53" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" s="14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D53" s="14">
         <v>19</v>
       </c>
       <c r="E53" s="14">
+        <v>8</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>44497</v>
+      </c>
+      <c r="B54" s="14">
+        <v>48</v>
+      </c>
+      <c r="C54" s="14">
+        <v>20</v>
+      </c>
+      <c r="D54" s="14">
+        <v>22</v>
+      </c>
+      <c r="E54" s="14">
+        <v>7</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>44449</v>
+      </c>
+      <c r="B55" s="14">
+        <v>46</v>
+      </c>
+      <c r="C55" s="14">
+        <v>22</v>
+      </c>
+      <c r="D55" s="14">
+        <v>18</v>
+      </c>
+      <c r="E55" s="14">
+        <v>7</v>
+      </c>
+      <c r="F55" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>44448</v>
+      </c>
+      <c r="B56" s="14">
+        <v>48</v>
+      </c>
+      <c r="C56" s="14">
+        <v>22</v>
+      </c>
+      <c r="D56" s="14">
+        <v>20</v>
+      </c>
+      <c r="E56" s="14">
+        <v>7</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>44447</v>
+      </c>
+      <c r="B57" s="14">
+        <v>51</v>
+      </c>
+      <c r="C57" s="14">
+        <v>21</v>
+      </c>
+      <c r="D57" s="14">
+        <v>18</v>
+      </c>
+      <c r="E57" s="14">
         <v>6</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>44371</v>
+      </c>
+      <c r="B58" s="14">
+        <v>46</v>
+      </c>
+      <c r="C58" s="14">
+        <v>24</v>
+      </c>
+      <c r="D58" s="14">
+        <v>19</v>
+      </c>
+      <c r="E58" s="14">
+        <v>6</v>
+      </c>
+      <c r="F58" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>44322</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B59" s="14">
         <v>47.7</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C59" s="14">
         <v>21.9</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D59" s="14">
         <v>21.6</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E59" s="14">
         <v>6.9</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F59" s="14">
         <v>1.3</v>
       </c>
     </row>
